--- a/results/minimal_seats-Denmark.xlsx
+++ b/results/minimal_seats-Denmark.xlsx
@@ -19,46 +19,46 @@
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">CD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL </t>
-  </si>
-  <si>
-    <t>FRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF </t>
-  </si>
-  <si>
-    <t>V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA </t>
-  </si>
-  <si>
-    <t>Å -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB </t>
+    <t>CD - The Centre Democrats (Centrum-Demokraterne , CD)</t>
+  </si>
+  <si>
+    <t>EL - The Unity List (Enhedslisten , EL)</t>
+  </si>
+  <si>
+    <t>FRP - The Progress Party (Fremskridtspartiet , FRP)</t>
+  </si>
+  <si>
+    <t>KF - The Conservative People’s Party ( Det Konservative Folkeparti , KF)</t>
+  </si>
+  <si>
+    <t>RV - The Social-Liberal Party (Det radikale Venstre , RV)</t>
+  </si>
+  <si>
+    <t>SD - The Social Democratic Party (Socialdemokratiet , SD)</t>
+  </si>
+  <si>
+    <t>SF - The Socialist People’s Party  (Socialistisk Folkeparti , SF)</t>
+  </si>
+  <si>
+    <t>V - The Liberal Party (Venstre , V)</t>
+  </si>
+  <si>
+    <t>no acronym - Independents (Uafhængig, no acronym)</t>
+  </si>
+  <si>
+    <t>DF - Danish People's Party  (Dansk Folkeparti , DF)</t>
+  </si>
+  <si>
+    <t>KD - Christian Democrats  (Kristendemokraterne , KD), known until 2004 as The Christian People’s Party  (KRF, Kristeligt Folkeparti )</t>
+  </si>
+  <si>
+    <t>LA - The Liberal Alliance   (The Liberal Alliance , LA), known until 27 August 2008 as New Alliance (NA, Ny Alliance )</t>
+  </si>
+  <si>
+    <t>Å - The Alternative (Alternativet, Å)</t>
+  </si>
+  <si>
+    <t>NB - New Right (Nye Borgerlige, NB)</t>
   </si>
   <si>
     <t>1994</t>
@@ -536,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1.999999999999999</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>2.999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>7.000000000000002</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>5.000000000000002</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>6.000000000000003</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>18</v>
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.999999999999999</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>1.999999999999997</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>2.000000000000001</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
